--- a/1_Schematic/Build V1.0/03_RF-GEN-RF-001/RF-GEN_RF PL V1.0_20191120.xlsx
+++ b/1_Schematic/Build V1.0/03_RF-GEN-RF-001/RF-GEN_RF PL V1.0_20191120.xlsx
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
